--- a/Week_13/appdg2/prediction.xlsx
+++ b/Week_13/appdg2/prediction.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Prediction</t>
+          <t>Persistency_Flag</t>
         </is>
       </c>
     </row>
@@ -444,8 +444,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Non-Persistent</t>
+        </is>
       </c>
     </row>
   </sheetData>
